--- a/us_aq_withdrawals.xlsx
+++ b/us_aq_withdrawals.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondris\Documents\GitHub\HighMagFlows_EPA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661868AA-11EA-4FC0-8F0E-C5617F97BF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D567006E-3457-4957-A4EC-B4F6B9A81896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{1D9780CB-37D8-4848-B511-6FCE064EC27C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{1D9780CB-37D8-4848-B511-6FCE064EC27C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Aquifer_name</t>
   </si>
@@ -123,13 +125,121 @@
   </si>
   <si>
     <t>Lower Cretaceous aquifers</t>
+  </si>
+  <si>
+    <t>Depletion_rate_km3_year_1</t>
+  </si>
+  <si>
+    <t>Depletion_rate_km3_year_3</t>
+  </si>
+  <si>
+    <t>Depletion_rate_km3_year_2</t>
+  </si>
+  <si>
+    <t>Depletion_rate_km3_year_avg</t>
+  </si>
+  <si>
+    <t>Storage_chg_km3_1</t>
+  </si>
+  <si>
+    <t>Storage_chg_km3_2</t>
+  </si>
+  <si>
+    <t>Storage_chg_km3_3</t>
+  </si>
+  <si>
+    <t>Storage_chg_km3_avg</t>
+  </si>
+  <si>
+    <t>Storage_chg_km3_konikow</t>
+  </si>
+  <si>
+    <t>Texas-Gulf Coast</t>
+  </si>
+  <si>
+    <t>Coastal lowlands</t>
+  </si>
+  <si>
+    <t>Arizona Alluvial</t>
+  </si>
+  <si>
+    <t>Mississippi Embayment</t>
+  </si>
+  <si>
+    <t>30_90</t>
+  </si>
+  <si>
+    <t>30_95</t>
+  </si>
+  <si>
+    <t>50_90</t>
+  </si>
+  <si>
+    <t>50_95</t>
+  </si>
+  <si>
+    <t>Floridan</t>
+  </si>
+  <si>
+    <t>30_90_vol</t>
+  </si>
+  <si>
+    <t>30_95_vol</t>
+  </si>
+  <si>
+    <t>50_90_vol</t>
+  </si>
+  <si>
+    <t>50_95_vol</t>
+  </si>
+  <si>
+    <t>aq_name</t>
+  </si>
+  <si>
+    <t>Central South High Plains</t>
+  </si>
+  <si>
+    <t>Coastal Lowlands</t>
+  </si>
+  <si>
+    <t>Edwards Trinity</t>
+  </si>
+  <si>
+    <t>Northern High Plains</t>
+  </si>
+  <si>
+    <t>Sacramento River Basin</t>
+  </si>
+  <si>
+    <t>San Joaquin River Basin</t>
+  </si>
+  <si>
+    <t>Texas Gulf Coast</t>
+  </si>
+  <si>
+    <t>30_90_pct_dep</t>
+  </si>
+  <si>
+    <t>30_95_pct_dep</t>
+  </si>
+  <si>
+    <t>50_90_pct_dep</t>
+  </si>
+  <si>
+    <t>50_95_pct_dep</t>
+  </si>
+  <si>
+    <t>Neg depl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +266,24 @@
       <color theme="1"/>
       <name val="System-ui"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,11 +322,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,9 +376,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,383 +739,2679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06F4114-FA86-4DFE-BCEB-5EE7C5255AAD}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54" thickBot="1">
+    <row r="1" spans="1:22" ht="52.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
+        <f>IF(I2&gt;0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>12300.91</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>13.77878892</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>16.995860560000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.6" thickBot="1">
+      <c r="F2" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(F2:H2)</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J2" s="7">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(J2:L2)</f>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="N2" s="8">
+        <v>312</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1.828502448529451</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1.2923685810107359</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1.7920913807672141</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1.2542686620026009</v>
+      </c>
+      <c r="S2" s="16">
+        <f>$I2/O2</f>
+        <v>0.63804490259498592</v>
+      </c>
+      <c r="T2" s="16">
+        <f t="shared" ref="T2:V2" si="0">$I2/P2</f>
+        <v>0.90273524427082541</v>
+      </c>
+      <c r="U2" s="16">
+        <f t="shared" si="0"/>
+        <v>0.6510084693154452</v>
+      </c>
+      <c r="V2" s="16">
+        <f t="shared" si="0"/>
+        <v>0.93015691295669756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="27" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B31" si="1">IF(I3&gt;0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>12141.03</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>13.59970032</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>16.774958349999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="F3" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="2">AVERAGE(F3:H3)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L3" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="3">AVERAGE(J3:L3)</f>
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="N3" s="8">
+        <v>67</v>
+      </c>
+      <c r="O3" s="11">
+        <v>4.0983384190834409</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2.604924345657913</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1.5933076489051761</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.87778211763790581</v>
+      </c>
+      <c r="S3" s="16">
+        <f t="shared" ref="S3:S31" si="4">$I3/O3</f>
+        <v>0.10085388054063429</v>
+      </c>
+      <c r="T3" s="16">
+        <f t="shared" ref="T3:T31" si="5">$I3/P3</f>
+        <v>0.1586738340490805</v>
+      </c>
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U31" si="6">$I3/Q3</f>
+        <v>0.2594184077490313</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" ref="V3:V31" si="7">$I3/R3</f>
+        <v>0.4708837478320988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>11116.8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>12.452415370000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>15.35980531</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.6" thickBot="1">
+      <c r="F4" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J4" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="L4" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>24.033333333333331</v>
+      </c>
+      <c r="N4" s="8">
+        <v>31</v>
+      </c>
+      <c r="O4" s="11">
+        <v>4.5139604261941724</v>
+      </c>
+      <c r="P4" s="11">
+        <v>2.027102013585337</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>4.6711358531499219</v>
+      </c>
+      <c r="R4" s="11">
+        <v>2.212017260302459</v>
+      </c>
+      <c r="S4" s="16">
+        <f t="shared" si="4"/>
+        <v>0.36922491765659388</v>
+      </c>
+      <c r="T4" s="16">
+        <f t="shared" si="5"/>
+        <v>0.82219180657752489</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="6"/>
+        <v>0.3568011548075124</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="7"/>
+        <v>0.7534600640678436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="27" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>7389.83</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>8.2776727710000007</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>10.210343809999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="F5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="J5" s="7">
+        <v>18</v>
+      </c>
+      <c r="K5" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="N5" s="8">
+        <v>-3.3</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2.2396637605317711</v>
+      </c>
+      <c r="P5" s="11">
+        <v>2.174244897411695</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>3.6600511315142978</v>
+      </c>
+      <c r="R5" s="11">
+        <v>3.5637132024518312</v>
+      </c>
+      <c r="S5" s="16">
+        <f t="shared" si="4"/>
+        <v>0.25301416965023404</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26062688124104533</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="6"/>
+        <v>0.15482479514766118</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="7"/>
+        <v>0.15901017687865582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>3184.94</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>3.5675910160000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>4.4005521659999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.6" thickBot="1">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="11">
+        <v>4.5130883236289652</v>
+      </c>
+      <c r="P6" s="11">
+        <v>2.9461193897928721</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>4.0580374500857754</v>
+      </c>
+      <c r="R6" s="11">
+        <v>2.509208444355683</v>
+      </c>
+      <c r="S6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="27" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>2928.81</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>3.2806885659999998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>4.0466637329999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" thickBot="1">
+      <c r="F7">
+        <v>-0.1</v>
+      </c>
+      <c r="G7">
+        <v>-0.6</v>
+      </c>
+      <c r="H7">
+        <v>-0.3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="J7" s="7">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="K7" s="7">
+        <v>-1.6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>-6.6</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(J7:L7)</f>
+        <v>-4.2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2.2630970145842739</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1.368859807177663</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1.947463859892387</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.97480077095677764</v>
+      </c>
+      <c r="S7" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.14729078390595018</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.24351166685257952</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="6"/>
+        <v>-0.17116278263143361</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" si="7"/>
+        <v>-0.34195021512566409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="27" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>2287.96</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>2.5628443679999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>3.1612172699999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.6" thickBot="1">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>2.1</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K8" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(J8:L8)</f>
+        <v>14.033333333333333</v>
+      </c>
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11">
+        <v>20.110735113414329</v>
+      </c>
+      <c r="P8" s="11">
+        <v>11.703277000805601</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>19.838493630465258</v>
+      </c>
+      <c r="R8" s="11">
+        <v>11.51646228962783</v>
+      </c>
+      <c r="S8" s="16">
+        <f t="shared" si="4"/>
+        <v>5.3039665663696958E-2</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="5"/>
+        <v>9.1142563454085737E-2</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="6"/>
+        <v>5.3767523206934682E-2</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="7"/>
+        <v>9.2621035856414666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="27" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>2033.51</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>2.27782376</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>2.8096500510000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O9" s="11">
+        <v>6.8487355740166604</v>
+      </c>
+      <c r="P9" s="11">
+        <v>4.5204953151317024</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>7.7291642930097346</v>
+      </c>
+      <c r="R9" s="11">
+        <v>5.0061945840399691</v>
+      </c>
+      <c r="S9" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="27" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>1390.8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>1.557896094</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>1.921633674</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O10" s="11">
+        <v>6.0894135171743651</v>
+      </c>
+      <c r="P10" s="11">
+        <v>3.3494669484092698</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>6.077531968532961</v>
+      </c>
+      <c r="R10" s="11">
+        <v>3.2533060287399169</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="27" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>1344.63</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>1.5061790509999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>1.8578417359999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="27.6" thickBot="1">
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="M11">
+        <v>2.8</v>
+      </c>
+      <c r="N11">
+        <v>2.8</v>
+      </c>
+      <c r="O11" s="11">
+        <v>13.2193208752347</v>
+      </c>
+      <c r="P11" s="11">
+        <v>8.0540547542186047</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>13.44333351918705</v>
+      </c>
+      <c r="R11" s="11">
+        <v>8.1279407456407711</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="4"/>
+        <v>1.5129370251892697E-2</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="5"/>
+        <v>2.4832212606357405E-2</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4877262378006857E-2</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="7"/>
+        <v>2.4606478597579008E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="27" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>1078.72</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>1.2083215949999999</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>1.490440521</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="F12">
+        <v>-0.4</v>
+      </c>
+      <c r="G12">
+        <v>-0.5</v>
+      </c>
+      <c r="H12">
+        <v>-0.6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12" si="8">AVERAGE(F12:H12)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J12">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="K12">
+        <v>-6.2</v>
+      </c>
+      <c r="L12">
+        <v>-6.2</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(J12:L12)</f>
+        <v>-7.3666666666666663</v>
+      </c>
+      <c r="N12">
+        <v>-1.4</v>
+      </c>
+      <c r="O12" s="11">
+        <v>9.9223774864957939</v>
+      </c>
+      <c r="P12" s="11">
+        <v>5.7009308475810867</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>10.037544731752551</v>
+      </c>
+      <c r="R12" s="11">
+        <v>6.7242950747357746</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="4"/>
+        <v>-5.0391148762531202E-2</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="5"/>
+        <v>-8.7704975444869798E-2</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="6"/>
+        <v>-4.9812978508410613E-2</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="7"/>
+        <v>-7.4357236623743356E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
         <v>949.08</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>1.063106144</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>1.311320166</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O13" s="11">
+        <v>0.19889494154956799</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.10341521922984841</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.20906293864564079</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0.12027578131015509</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="27" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>928.63</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>1.0401992010000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>1.2830649110000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="27.6" thickBot="1">
+      <c r="F14" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="9">AVERAGE(F14:H14)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGE(J14:L14)</f>
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="N14" s="8">
+        <v>67</v>
+      </c>
+      <c r="O14" s="11">
+        <v>10.49346681708351</v>
+      </c>
+      <c r="P14" s="11">
+        <v>5.7601772317595339</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>10.788849950026339</v>
+      </c>
+      <c r="R14" s="11">
+        <v>5.9545336122190422</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="4"/>
+        <v>3.9389587877708909E-2</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="5"/>
+        <v>7.1757051337650313E-2</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="6"/>
+        <v>3.8311157838683656E-2</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="7"/>
+        <v>6.9414896321208064E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="27" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>921.31</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>1.0319997480000001</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>1.2729510500000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O15" s="11">
+        <v>4.0535204462427146</v>
+      </c>
+      <c r="P15" s="11">
+        <v>2.491708295559719</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>3.8704043759135409</v>
+      </c>
+      <c r="R15" s="11">
+        <v>2.3455330937445078</v>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="27" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>725.1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>0.81221631969999997</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>1.001852586</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="O16" s="11">
+        <v>8.6545629523673959</v>
+      </c>
+      <c r="P16" s="11">
+        <v>5.2132064024391909</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>7.0982750954493614</v>
+      </c>
+      <c r="R16" s="11">
+        <v>3.7632645188978571</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>679.33</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>0.76094733479999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>0.93861331859999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O17" s="11">
+        <v>9.9556676834009067E-2</v>
+      </c>
+      <c r="P17" s="11">
+        <v>6.6631861578152068E-2</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>7.7223803188840187E-2</v>
+      </c>
+      <c r="R17" s="11">
+        <v>4.7206378610089139E-2</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="27" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>661.1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>0.7405271121</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>0.91342538220000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="40.799999999999997" thickBot="1">
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>0.6</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18" si="10">AVERAGE(F18:H18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>8.4</v>
+      </c>
+      <c r="K18">
+        <v>6.4</v>
+      </c>
+      <c r="L18">
+        <v>6.1</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGE(J18:L18)</f>
+        <v>6.9666666666666659</v>
+      </c>
+      <c r="O18" s="11">
+        <v>4.0917901123823404</v>
+      </c>
+      <c r="P18" s="11">
+        <v>2.7456194949404602</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>3.8903940327193269</v>
+      </c>
+      <c r="R18" s="11">
+        <v>2.5059950808913798</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" si="4"/>
+        <v>0.12219590601358772</v>
+      </c>
+      <c r="T18" s="16">
+        <f t="shared" si="5"/>
+        <v>0.18210826406258551</v>
+      </c>
+      <c r="U18" s="16">
+        <f t="shared" si="6"/>
+        <v>0.1285216859256047</v>
+      </c>
+      <c r="V18" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1995215408891188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="39.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>609.99</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>0.68327655890000005</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>0.84280796989999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O19" s="11">
+        <v>2.8437645605417008</v>
+      </c>
+      <c r="P19" s="11">
+        <v>1.559412239792755</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>2.9918031478970799</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1.57630567008499</v>
+      </c>
+      <c r="S19" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="27" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>591.67999999999995</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>0.66276672469999998</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>0.81750949949999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="O20" s="11">
+        <v>14.361408419616779</v>
+      </c>
+      <c r="P20" s="11">
+        <v>8.876599010728329</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>13.19935152464735</v>
+      </c>
+      <c r="R20" s="11">
+        <v>7.9642793379850421</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>557.27</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>0.62422257410000004</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>0.76996606069999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1">
+      <c r="O21" s="11">
+        <v>7.3596091400112904</v>
+      </c>
+      <c r="P21" s="11">
+        <v>4.6078179715616878</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>4.3425922627565736</v>
+      </c>
+      <c r="R21" s="11">
+        <v>2.5099379665570289</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>551.24</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>0.61746810659999996</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>0.76163456009999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1">
+      <c r="O22" s="11">
+        <v>8.7212152716379983</v>
+      </c>
+      <c r="P22" s="11">
+        <v>4.9495292893077867</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>9.0294898190166037</v>
+      </c>
+      <c r="R22" s="11">
+        <v>5.1092032213596346</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
         <v>473.94</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>0.53088098549999996</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>0.65483107799999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O23" s="11">
+        <v>6.0503943644342044</v>
+      </c>
+      <c r="P23" s="11">
+        <v>3.6982215202733562</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>6.1051380491467704</v>
+      </c>
+      <c r="R23" s="11">
+        <v>3.4313458469787279</v>
+      </c>
+      <c r="S23" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="27" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
         <v>472.74</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>0.52953681279999998</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>0.65317306789999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="27.6" thickBot="1">
+      <c r="O24" s="11">
+        <v>3.216812374505301</v>
+      </c>
+      <c r="P24" s="11">
+        <v>1.8620539884230249</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>2.2984959787858452</v>
+      </c>
+      <c r="R24" s="11">
+        <v>1.3696152323810269</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="27" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
         <v>465.61</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>0.521550187</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>0.64332172470000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+      <c r="O25" s="11">
+        <v>3.373228689079502</v>
+      </c>
+      <c r="P25" s="11">
+        <v>1.66439628271616</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="R25" s="11">
+        <v>1.5976138316947199</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <v>445.83</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>0.49939374130000003</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>0.61599219199999999</v>
+      </c>
+      <c r="O26" s="11">
+        <v>15.297768249137791</v>
+      </c>
+      <c r="P26" s="11">
+        <v>11.147031247989251</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>8.238157137226688</v>
+      </c>
+      <c r="R26" s="11">
+        <v>6.4838647217458272</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I28" si="11">AVERAGE(F27:H27)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L27" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(J27:L27)</f>
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="N27" s="8">
+        <v>67</v>
+      </c>
+      <c r="O27" s="11">
+        <f>O4+O14</f>
+        <v>15.007427243277682</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" ref="P27:R27" si="12">P4+P14</f>
+        <v>7.7872792453448714</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="12"/>
+        <v>15.459985803176261</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" si="12"/>
+        <v>8.1665508725215012</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="4"/>
+        <v>2.7541918187108244E-2</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="5"/>
+        <v>5.3078016122308481E-2</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="6"/>
+        <v>2.6735686474460656E-2</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="7"/>
+        <v>5.0612962532824178E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="11"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="J28" s="7">
+        <v>18</v>
+      </c>
+      <c r="K28" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="L28" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M31" si="13">AVERAGE(J28:L28)</f>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="N28" s="8">
+        <v>-3.3</v>
+      </c>
+      <c r="O28" s="11">
+        <v>3.4613069922212572</v>
+      </c>
+      <c r="P28" s="11">
+        <v>3.4028168800706311</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>1.7126154158808089</v>
+      </c>
+      <c r="R28" s="11">
+        <v>1.8387039005356109</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="4"/>
+        <v>0.1637146511246072</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16652869861598446</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="6"/>
+        <v>0.33087794341453269</v>
+      </c>
+      <c r="V28" s="16">
+        <f t="shared" si="7"/>
+        <v>0.30818810277260938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I31" si="14">AVERAGE(F29:H29)</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J29" s="7">
+        <v>14</v>
+      </c>
+      <c r="K29" s="7">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7">
+        <v>21.8</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="13"/>
+        <v>15.6</v>
+      </c>
+      <c r="N29" s="8">
+        <v>3</v>
+      </c>
+      <c r="O29" s="11">
+        <v>8.739357167761062</v>
+      </c>
+      <c r="P29" s="11">
+        <v>5.4393207923055966</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>7.8962047894675766</v>
+      </c>
+      <c r="R29" s="11">
+        <v>4.9592906066039903</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="4"/>
+        <v>0.12968154425752601</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20835934790544697</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14352886779798824</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22852730828561268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="14"/>
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-3.8</v>
+      </c>
+      <c r="L30" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="13"/>
+        <v>-1.4666666666666666</v>
+      </c>
+      <c r="N30" s="8">
+        <v>3</v>
+      </c>
+      <c r="O30" s="11">
+        <v>11.37137794565327</v>
+      </c>
+      <c r="P30" s="11">
+        <v>6.2639562085000016</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>11.94228884099768</v>
+      </c>
+      <c r="R30" s="11">
+        <v>6.5571716830238351</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" si="4"/>
+        <v>-8.7940090003098669E-3</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.59643517086379E-2</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="6"/>
+        <v>-8.3736042002854304E-3</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" si="7"/>
+        <v>-1.5250477619625946E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>-0.9</v>
+      </c>
+      <c r="G31">
+        <v>-0.2</v>
+      </c>
+      <c r="H31">
+        <v>-0.7</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>-11.3</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-13.5</v>
+      </c>
+      <c r="L31" s="7">
+        <v>-2.4</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="13"/>
+        <v>-9.0666666666666664</v>
+      </c>
+      <c r="O31" s="11">
+        <f>O21+O6</f>
+        <v>11.872697463640256</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" ref="P31:R31" si="15">P21+P6</f>
+        <v>7.55393736135456</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="15"/>
+        <v>8.4006297128423491</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="15"/>
+        <v>5.019146410912712</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="4"/>
+        <v>-5.0536114630856228E-2</v>
+      </c>
+      <c r="T31" s="16">
+        <f t="shared" si="5"/>
+        <v>-7.9428776186252215E-2</v>
+      </c>
+      <c r="U31" s="16">
+        <f t="shared" si="6"/>
+        <v>-7.1423217128920483E-2</v>
+      </c>
+      <c r="V31" s="16">
+        <f t="shared" si="7"/>
+        <v>-0.11954223903400585</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CC915-93F5-493A-BA94-6E1284C9613F}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" style="15" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="15"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2.3702030000000001</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2.3702030000000001</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.7720149999999999</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1.7720149999999999</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="I2" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="J2" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="K2" s="14">
+        <v>21.073743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6.5459449999999997</v>
+      </c>
+      <c r="C3" s="14">
+        <v>6.5459449999999997</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3.2572410000000001</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3.2572410000000001</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
+        <v>58.074420000000003</v>
+      </c>
+      <c r="I3" s="14">
+        <v>58.074420000000003</v>
+      </c>
+      <c r="J3" s="14">
+        <v>22.023517999999999</v>
+      </c>
+      <c r="K3" s="14">
+        <v>22.023517999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14">
+        <v>96.137201000000005</v>
+      </c>
+      <c r="C4" s="14">
+        <v>96.137201000000005</v>
+      </c>
+      <c r="D4" s="14">
+        <v>95.901079999999993</v>
+      </c>
+      <c r="E4" s="14">
+        <v>95.901079999999993</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="14">
+        <v>5.9393830000000003</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5.9393830000000003</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5.9393830000000003</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5.9393830000000003</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14">
+        <v>31.143682999999999</v>
+      </c>
+      <c r="C6" s="14">
+        <v>31.143682999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>31.143682999999999</v>
+      </c>
+      <c r="E6" s="14">
+        <v>31.143682999999999</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="14">
+        <v>145.18882300000001</v>
+      </c>
+      <c r="C7" s="14">
+        <v>145.18882300000001</v>
+      </c>
+      <c r="D7" s="14">
+        <v>145.18882300000001</v>
+      </c>
+      <c r="E7" s="14">
+        <v>145.18882300000001</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>242.769487</v>
+      </c>
+      <c r="C8" s="14">
+        <v>242.769487</v>
+      </c>
+      <c r="D8" s="14">
+        <v>242.769487</v>
+      </c>
+      <c r="E8" s="14">
+        <v>242.769487</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45.053904000000003</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45.053904000000003</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45.053904000000003</v>
+      </c>
+      <c r="E9" s="14">
+        <v>45.053904000000003</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
+        <v>53.305442999999997</v>
+      </c>
+      <c r="C10" s="14">
+        <v>53.305442999999997</v>
+      </c>
+      <c r="D10" s="14">
+        <v>53.305442999999997</v>
+      </c>
+      <c r="E10" s="14">
+        <v>53.305442999999997</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="C11" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="D11" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="E11" s="14">
+        <v>21.073743</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="14">
+        <v>175.409087</v>
+      </c>
+      <c r="C12" s="14">
+        <v>175.409087</v>
+      </c>
+      <c r="D12" s="14">
+        <v>139.35818499999999</v>
+      </c>
+      <c r="E12" s="14">
+        <v>139.35818499999999</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>58.074420000000003</v>
+      </c>
+      <c r="C13" s="14">
+        <v>58.074420000000003</v>
+      </c>
+      <c r="D13" s="14">
+        <v>22.023517999999999</v>
+      </c>
+      <c r="E13" s="14">
+        <v>22.023517999999999</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>200.28693999999999</v>
+      </c>
+      <c r="C14" s="14">
+        <v>200.28693999999999</v>
+      </c>
+      <c r="D14" s="14">
+        <v>200.28693999999999</v>
+      </c>
+      <c r="E14" s="14">
+        <v>200.28693999999999</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="14">
+        <v>15.134359999999999</v>
+      </c>
+      <c r="C15" s="14">
+        <v>15.134359999999999</v>
+      </c>
+      <c r="D15" s="14">
+        <v>15.134359999999999</v>
+      </c>
+      <c r="E15" s="14">
+        <v>15.134359999999999</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14">
+        <v>82.724835999999996</v>
+      </c>
+      <c r="C16" s="14">
+        <v>82.724835999999996</v>
+      </c>
+      <c r="D16" s="14">
+        <v>82.724835999999996</v>
+      </c>
+      <c r="E16" s="14">
+        <v>82.724835999999996</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="14">
+        <v>20.812283999999998</v>
+      </c>
+      <c r="C17" s="14">
+        <v>20.812283999999998</v>
+      </c>
+      <c r="D17" s="14">
+        <v>20.812283999999998</v>
+      </c>
+      <c r="E17" s="14">
+        <v>20.812283999999998</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="14">
+        <v>10.331398999999999</v>
+      </c>
+      <c r="C18" s="14">
+        <v>10.331398999999999</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10.331398999999999</v>
+      </c>
+      <c r="E18" s="14">
+        <v>10.331398999999999</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="14">
+        <v>18.612753999999999</v>
+      </c>
+      <c r="C19" s="14">
+        <v>18.612753999999999</v>
+      </c>
+      <c r="D19" s="14">
+        <v>15.094137999999999</v>
+      </c>
+      <c r="E19" s="14">
+        <v>15.094137999999999</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14">
+        <v>97.580663999999999</v>
+      </c>
+      <c r="C20" s="14">
+        <v>97.580663999999999</v>
+      </c>
+      <c r="D20" s="14">
+        <v>97.580663999999999</v>
+      </c>
+      <c r="E20" s="14">
+        <v>97.580663999999999</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>12300.91</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13.77878892</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16.995860560000001</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12141.03</v>
+      </c>
+      <c r="C23" s="2">
+        <v>13.59970032</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16.774958349999999</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>11116.8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12.452415370000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15.35980531</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7389.83</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.2776727710000007</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10.210343809999999</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3184.94</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.5675910160000002</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.4005521659999998</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2928.81</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.2806885659999998</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.0466637329999999</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2287.96</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.5628443679999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.1612172699999999</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2033.51</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.27782376</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.8096500510000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1390.8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.557896094</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.921633674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1344.63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.5061790509999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.8578417359999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1078.72</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.2083215949999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.490440521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2">
+        <v>949.08</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.063106144</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.311320166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>928.63</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.0401992010000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.2830649110000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2">
+        <v>921.31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.0319997480000001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.2729510500000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>725.1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.81221631969999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.001852586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2">
+        <v>679.33</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.76094733479999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.93861331859999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2">
+        <v>661.1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.7405271121</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.91342538220000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2">
+        <v>609.99</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.68327655890000005</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.84280796989999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2">
+        <v>591.67999999999995</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.66276672469999998</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.81750949949999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2">
+        <v>557.27</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.62422257410000004</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.76996606069999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2">
+        <v>551.24</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.61746810659999996</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.76163456009999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2">
+        <v>473.94</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.53088098549999996</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.65483107799999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2">
+        <v>472.74</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.52953681279999998</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.65317306789999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2">
+        <v>465.61</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.521550187</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.64332172470000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2">
+        <v>445.83</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.49939374130000003</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.61599219199999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/us_aq_withdrawals.xlsx
+++ b/us_aq_withdrawals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondris\Documents\GitHub\HighMagFlows_EPA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D567006E-3457-4957-A4EC-B4F6B9A81896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E9772-8E89-4152-B25A-73D5ED88E007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{1D9780CB-37D8-4848-B511-6FCE064EC27C}"/>
+    <workbookView xWindow="17835" yWindow="345" windowWidth="17970" windowHeight="17250" xr2:uid="{1D9780CB-37D8-4848-B511-6FCE064EC27C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,14 +395,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -878,19 +876,19 @@
       <c r="R2" s="11">
         <v>1.2542686620026009</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="14">
         <f>$I2/O2</f>
         <v>0.63804490259498592</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="14">
         <f t="shared" ref="T2:V2" si="0">$I2/P2</f>
         <v>0.90273524427082541</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="14">
         <f t="shared" si="0"/>
         <v>0.6510084693154452</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="14">
         <f t="shared" si="0"/>
         <v>0.93015691295669756</v>
       </c>
@@ -953,19 +951,19 @@
       <c r="R3" s="11">
         <v>0.87778211763790581</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="14">
         <f t="shared" ref="S3:S31" si="4">$I3/O3</f>
         <v>0.10085388054063429</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="14">
         <f t="shared" ref="T3:T31" si="5">$I3/P3</f>
         <v>0.1586738340490805</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="14">
         <f t="shared" ref="U3:U31" si="6">$I3/Q3</f>
         <v>0.2594184077490313</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="14">
         <f t="shared" ref="V3:V31" si="7">$I3/R3</f>
         <v>0.4708837478320988</v>
       </c>
@@ -1028,19 +1026,19 @@
       <c r="R4" s="11">
         <v>2.212017260302459</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="14">
         <f t="shared" si="4"/>
         <v>0.36922491765659388</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="14">
         <f t="shared" si="5"/>
         <v>0.82219180657752489</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="14">
         <f t="shared" si="6"/>
         <v>0.3568011548075124</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="14">
         <f t="shared" si="7"/>
         <v>0.7534600640678436</v>
       </c>
@@ -1103,19 +1101,19 @@
       <c r="R5" s="11">
         <v>3.5637132024518312</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="14">
         <f t="shared" si="4"/>
         <v>0.25301416965023404</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <f t="shared" si="5"/>
         <v>0.26062688124104533</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="14">
         <f t="shared" si="6"/>
         <v>0.15482479514766118</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="14">
         <f t="shared" si="7"/>
         <v>0.15901017687865582</v>
       </c>
@@ -1153,19 +1151,19 @@
       <c r="R6" s="11">
         <v>2.509208444355683</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1228,19 +1226,19 @@
       <c r="R7" s="11">
         <v>0.97480077095677764</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="14">
         <f t="shared" si="4"/>
         <v>-0.14729078390595018</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="14">
         <f t="shared" si="5"/>
         <v>-0.24351166685257952</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="14">
         <f t="shared" si="6"/>
         <v>-0.17116278263143361</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="14">
         <f t="shared" si="7"/>
         <v>-0.34195021512566409</v>
       </c>
@@ -1303,19 +1301,19 @@
       <c r="R8" s="11">
         <v>11.51646228962783</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="14">
         <f t="shared" si="4"/>
         <v>5.3039665663696958E-2</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="14">
         <f t="shared" si="5"/>
         <v>9.1142563454085737E-2</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="14">
         <f t="shared" si="6"/>
         <v>5.3767523206934682E-2</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="14">
         <f t="shared" si="7"/>
         <v>9.2621035856414666E-2</v>
       </c>
@@ -1349,19 +1347,19 @@
       <c r="R9" s="11">
         <v>5.0061945840399691</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1395,19 +1393,19 @@
       <c r="R10" s="11">
         <v>3.2533060287399169</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1450,19 +1448,19 @@
       <c r="R11" s="11">
         <v>8.1279407456407711</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="14">
         <f t="shared" si="4"/>
         <v>1.5129370251892697E-2</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="14">
         <f t="shared" si="5"/>
         <v>2.4832212606357405E-2</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="14">
         <f t="shared" si="6"/>
         <v>1.4877262378006857E-2</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="14">
         <f t="shared" si="7"/>
         <v>2.4606478597579008E-2</v>
       </c>
@@ -1525,19 +1523,19 @@
       <c r="R12" s="11">
         <v>6.7242950747357746</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="14">
         <f t="shared" si="4"/>
         <v>-5.0391148762531202E-2</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="14">
         <f t="shared" si="5"/>
         <v>-8.7704975444869798E-2</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="14">
         <f t="shared" si="6"/>
         <v>-4.9812978508410613E-2</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="14">
         <f t="shared" si="7"/>
         <v>-7.4357236623743356E-2</v>
       </c>
@@ -1571,19 +1569,19 @@
       <c r="R13" s="11">
         <v>0.12027578131015509</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1646,19 +1644,19 @@
       <c r="R14" s="11">
         <v>5.9545336122190422</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="14">
         <f t="shared" si="4"/>
         <v>3.9389587877708909E-2</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="14">
         <f t="shared" si="5"/>
         <v>7.1757051337650313E-2</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="14">
         <f t="shared" si="6"/>
         <v>3.8311157838683656E-2</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="14">
         <f t="shared" si="7"/>
         <v>6.9414896321208064E-2</v>
       </c>
@@ -1692,19 +1690,19 @@
       <c r="R15" s="11">
         <v>2.3455330937445078</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1738,19 +1736,19 @@
       <c r="R16" s="11">
         <v>3.7632645188978571</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="16">
+      <c r="U16" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1784,19 +1782,19 @@
       <c r="R17" s="11">
         <v>4.7206378610089139E-2</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1856,19 +1854,19 @@
       <c r="R18" s="11">
         <v>2.5059950808913798</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="14">
         <f t="shared" si="4"/>
         <v>0.12219590601358772</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="14">
         <f t="shared" si="5"/>
         <v>0.18210826406258551</v>
       </c>
-      <c r="U18" s="16">
+      <c r="U18" s="14">
         <f t="shared" si="6"/>
         <v>0.1285216859256047</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="14">
         <f t="shared" si="7"/>
         <v>0.1995215408891188</v>
       </c>
@@ -1902,19 +1900,19 @@
       <c r="R19" s="11">
         <v>1.57630567008499</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1948,19 +1946,19 @@
       <c r="R20" s="11">
         <v>7.9642793379850421</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U20" s="16">
+      <c r="U20" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V20" s="16">
+      <c r="V20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1994,19 +1992,19 @@
       <c r="R21" s="11">
         <v>2.5099379665570289</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U21" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2040,19 +2038,19 @@
       <c r="R22" s="11">
         <v>5.1092032213596346</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S22" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="16">
+      <c r="U22" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2086,19 +2084,19 @@
       <c r="R23" s="11">
         <v>3.4313458469787279</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="16">
+      <c r="U23" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2132,19 +2130,19 @@
       <c r="R24" s="11">
         <v>1.3696152323810269</v>
       </c>
-      <c r="S24" s="16">
+      <c r="S24" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U24" s="16">
+      <c r="U24" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V24" s="16">
+      <c r="V24" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2178,19 +2176,19 @@
       <c r="R25" s="11">
         <v>1.5976138316947199</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U25" s="16">
+      <c r="U25" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2224,19 +2222,19 @@
       <c r="R26" s="11">
         <v>6.4838647217458272</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U26" s="16">
+      <c r="U26" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V26" s="16">
+      <c r="V26" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2297,19 +2295,19 @@
         <f t="shared" si="12"/>
         <v>8.1665508725215012</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S27" s="14">
         <f t="shared" si="4"/>
         <v>2.7541918187108244E-2</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="14">
         <f t="shared" si="5"/>
         <v>5.3078016122308481E-2</v>
       </c>
-      <c r="U27" s="16">
+      <c r="U27" s="14">
         <f t="shared" si="6"/>
         <v>2.6735686474460656E-2</v>
       </c>
-      <c r="V27" s="16">
+      <c r="V27" s="14">
         <f t="shared" si="7"/>
         <v>5.0612962532824178E-2</v>
       </c>
@@ -2366,19 +2364,19 @@
       <c r="R28" s="11">
         <v>1.8387039005356109</v>
       </c>
-      <c r="S28" s="16">
+      <c r="S28" s="14">
         <f t="shared" si="4"/>
         <v>0.1637146511246072</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="14">
         <f t="shared" si="5"/>
         <v>0.16652869861598446</v>
       </c>
-      <c r="U28" s="16">
+      <c r="U28" s="14">
         <f t="shared" si="6"/>
         <v>0.33087794341453269</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="14">
         <f t="shared" si="7"/>
         <v>0.30818810277260938</v>
       </c>
@@ -2432,19 +2430,19 @@
       <c r="R29" s="11">
         <v>4.9592906066039903</v>
       </c>
-      <c r="S29" s="16">
+      <c r="S29" s="14">
         <f t="shared" si="4"/>
         <v>0.12968154425752601</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="14">
         <f t="shared" si="5"/>
         <v>0.20835934790544697</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U29" s="14">
         <f t="shared" si="6"/>
         <v>0.14352886779798824</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29" s="14">
         <f t="shared" si="7"/>
         <v>0.22852730828561268</v>
       </c>
@@ -2498,19 +2496,19 @@
       <c r="R30" s="11">
         <v>6.5571716830238351</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="14">
         <f t="shared" si="4"/>
         <v>-8.7940090003098669E-3</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="14">
         <f t="shared" si="5"/>
         <v>-1.59643517086379E-2</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30" s="14">
         <f t="shared" si="6"/>
         <v>-8.3736042002854304E-3</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="14">
         <f t="shared" si="7"/>
         <v>-1.5250477619625946E-2</v>
       </c>
@@ -2565,19 +2563,19 @@
         <f t="shared" si="15"/>
         <v>5.019146410912712</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="14">
         <f t="shared" si="4"/>
         <v>-5.0536114630856228E-2</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="14">
         <f t="shared" si="5"/>
         <v>-7.9428776186252215E-2</v>
       </c>
-      <c r="U31" s="16">
+      <c r="U31" s="14">
         <f t="shared" si="6"/>
         <v>-7.1423217128920483E-2</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="14">
         <f t="shared" si="7"/>
         <v>-0.11954223903400585</v>
       </c>
@@ -2598,13 +2596,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="15" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="15"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2620,401 +2617,383 @@
         <v>50</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>2.3702030000000001</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>2.3702030000000001</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>1.7720149999999999</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>1.7720149999999999</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>21.073743</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>21.073743</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>21.073743</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>21.073743</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>6.5459449999999997</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>6.5459449999999997</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>3.2572410000000001</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>3.2572410000000001</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>58.074420000000003</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>58.074420000000003</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>22.023517999999999</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>22.023517999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>96.137201000000005</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>96.137201000000005</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>95.901079999999993</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>95.901079999999993</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>5.9393830000000003</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>5.9393830000000003</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>5.9393830000000003</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>5.9393830000000003</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>31.143682999999999</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>31.143682999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>31.143682999999999</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>31.143682999999999</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>145.18882300000001</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>145.18882300000001</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>145.18882300000001</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>145.18882300000001</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>242.769487</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>242.769487</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>242.769487</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>242.769487</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>45.053904000000003</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>45.053904000000003</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>45.053904000000003</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>45.053904000000003</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>53.305442999999997</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>53.305442999999997</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>53.305442999999997</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>53.305442999999997</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>21.073743</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>21.073743</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>21.073743</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>21.073743</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>175.409087</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>175.409087</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>139.35818499999999</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>139.35818499999999</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>58.074420000000003</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>58.074420000000003</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>22.023517999999999</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>22.023517999999999</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>200.28693999999999</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>200.28693999999999</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>200.28693999999999</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>200.28693999999999</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>15.134359999999999</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>15.134359999999999</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>15.134359999999999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>15.134359999999999</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>82.724835999999996</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>82.724835999999996</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>82.724835999999996</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>82.724835999999996</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A17" s="14" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>20.812283999999998</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>20.812283999999998</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>20.812283999999998</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>20.812283999999998</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A18" s="14" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>10.331398999999999</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>10.331398999999999</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>10.331398999999999</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>10.331398999999999</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A19" s="14" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>18.612753999999999</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>18.612753999999999</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>15.094137999999999</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>15.094137999999999</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A20" s="14" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>97.580663999999999</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>97.580663999999999</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>97.580663999999999</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>97.580663999999999</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -3029,7 +3008,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3023,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -3059,7 +3038,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -3074,7 +3053,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -3089,7 +3068,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3083,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +3098,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3112,7 @@
         <v>2.8096500510000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -3147,7 +3126,7 @@
         <v>1.921633674</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27" thickBot="1">
+    <row r="31" spans="1:6" ht="27" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3140,7 @@
         <v>1.8578417359999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -3387,29 +3366,20 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:1">
       <c r="A49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
